--- a/Data/mentorship_ratios.xlsx
+++ b/Data/mentorship_ratios.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliaheuer/Desktop/DataAnalyticsCourseWork/Analysis_Projects_Folder/Pewlett-Hackard-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{028BCF01-8F4B-3842-A262-A66379C6D252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7C989D-FFA6-DC44-A1ED-3079EF981A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{2EE39DE0-6C9C-9748-8C7E-D95B6357E621}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>title</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>total employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total percentage of employees eligible to mentor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total percentage of employees retiring </t>
   </si>
 </sst>
 </file>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426E6E66-144B-3B4A-B276-81A454BAE411}">
-  <dimension ref="B1:Q15"/>
+  <dimension ref="B1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,23 +766,75 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="K10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C3:C9)</f>
+        <v>443308</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM(D3:D9)</f>
+        <v>90398</v>
+      </c>
+      <c r="E11" s="1">
+        <f>SUM(E3:E9)</f>
+        <v>352910</v>
+      </c>
+      <c r="F11" s="1">
+        <f>SUM(F3:F9)</f>
+        <v>1549</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L11" s="2">
         <v>419</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f>D11/C11</f>
+        <v>0.20391691555306921</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f>F11/C11</f>
+        <v>3.4941846300991634E-3</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q21">
-    <sortCondition ref="B3:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q22">
+    <sortCondition ref="B3:B22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
